--- a/Incident Status.xlsx
+++ b/Incident Status.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I535177\Desktop\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I535177\Desktop\Personal project\Abhi_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39207B82-CB8B-45AA-8CB7-549D85BB2442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A9B1A-6F3C-474D-B0BC-98CCDF4E9A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2112E145-5800-4909-9985-62FFD861236E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Subhendu</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>In Progress - need to refer back to previous incident and resolve it</t>
+  </si>
+  <si>
+    <t>New Abhi</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26292860-206F-4D81-9F63-F7612F500B11}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +579,11 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
